--- a/Sevenmart/src/test/resources/Testdata.xlsx
+++ b/Sevenmart/src/test/resources/Testdata.xlsx
@@ -91,7 +91,7 @@
     <t>Category</t>
   </si>
   <si>
-    <t>ktn</t>
+    <t>DFD</t>
   </si>
 </sst>
 </file>

--- a/Sevenmart/src/test/resources/Testdata.xlsx
+++ b/Sevenmart/src/test/resources/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21228" windowHeight="9084" activeTab="5"/>
+    <workbookView windowWidth="21228" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
     <t>Category</t>
   </si>
   <si>
-    <t>DFD</t>
+    <t>vsv</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1270,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1498,7 +1498,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
